--- a/实验结果统计.xlsx
+++ b/实验结果统计.xlsx
@@ -5,11 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="代词消解" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="AutoMention &amp; GoldMention" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Test-AutoMention &amp; GoldMention" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Train-AutoMention &amp; GoldMention" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Train-多轮一起" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="37">
   <si>
     <t xml:space="preserve">MUC</t>
   </si>
@@ -111,6 +113,99 @@
   </si>
   <si>
     <t xml:space="preserve">语义规则</t>
+  </si>
+  <si>
+    <t xml:space="preserve">order顺序</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCUB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sieve_order = [
+        test_sieve,
+        exact_match,
+        strict_head_matching_A,
+        strict_head_matching_B,
+        strict_head_matching_C,
+        proper_header_word_match_sieve,
+        # precise_constructs,
+        # relaxing_head_matching,
+        discourse_processing,
+        pronoun_sieve,
+        other_sieve,
+        filter_sieve,
+    ]
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"># # </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="AR PL UKai CN"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">按照</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Precision</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="AR PL UKai CN"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">降序
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">sieve_order = [
+        test_sieve,
+        exact_match,
+        strict_head_matching_A,
+        strict_head_matching_B,
+        strict_head_matching_C,
+        proper_header_word_match_sieve,
+        pronoun_sieve,
+        discourse_processing,
+        precise_constructs,
+        relaxing_head_matching,
+        other_sieve,
+        filter_sieve,
+]</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -120,7 +215,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK SC Regular"/>
@@ -182,6 +277,32 @@
       <name val="Consolas"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF000000"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF000000"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF000000"/>
+      <name val="AR PL UKai CN"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -247,7 +368,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -282,6 +403,30 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -363,14 +508,13 @@
   </sheetPr>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="1" sqref="B4:G4 A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.9030612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.9387755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -644,13 +788,13 @@
   </sheetPr>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B4:G4 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.44897959183673"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1178,4 +1322,636 @@
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="1" sqref="B4:G4 A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="I1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4"/>
+      <c r="B2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="8" t="n">
+        <v>88.58</v>
+      </c>
+      <c r="C3" s="8" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="D3" s="8" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="E3" s="8" t="n">
+        <v>92.15</v>
+      </c>
+      <c r="F3" s="8" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G3" s="8" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="K3" s="8" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L3" s="8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M3" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="N3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="8" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="8" t="n">
+        <v>28.53</v>
+      </c>
+      <c r="C4" s="8" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="D4" s="8" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="E4" s="8" t="n">
+        <v>43.81</v>
+      </c>
+      <c r="F4" s="8" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="G4" s="8" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="8" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="K4" s="8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L4" s="8" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M4" s="8" t="n">
+        <v>17.26</v>
+      </c>
+      <c r="N4" s="8" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="O4" s="8" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="8" t="n">
+        <v>91.07</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <v>60.15</v>
+      </c>
+      <c r="E5" s="8" t="n">
+        <v>89.1</v>
+      </c>
+      <c r="F5" s="8" t="n">
+        <v>37.73</v>
+      </c>
+      <c r="G5" s="8" t="n">
+        <v>53.01</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="8" t="n">
+        <v>31.92</v>
+      </c>
+      <c r="K5" s="8" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="L5" s="8" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="M5" s="8" t="n">
+        <v>45.07</v>
+      </c>
+      <c r="N5" s="8" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O5" s="8" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="I6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="8" t="n">
+        <v>31.37</v>
+      </c>
+      <c r="K6" s="8" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="L6" s="8" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M6" s="8" t="n">
+        <v>44.46</v>
+      </c>
+      <c r="N6" s="8" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="O6" s="8" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="I7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="8" t="n">
+        <v>31.89</v>
+      </c>
+      <c r="K7" s="8" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="L7" s="8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M7" s="8" t="n">
+        <v>44.24</v>
+      </c>
+      <c r="N7" s="8" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="O7" s="8" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="8" t="n">
+        <v>75.09</v>
+      </c>
+      <c r="C8" s="8" t="n">
+        <v>83.21</v>
+      </c>
+      <c r="D8" s="8" t="n">
+        <v>78.94</v>
+      </c>
+      <c r="E8" s="8" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F8" s="8" t="n">
+        <v>76.57</v>
+      </c>
+      <c r="G8" s="8" t="n">
+        <v>47.57</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="8" t="n">
+        <v>15.21</v>
+      </c>
+      <c r="K8" s="8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L8" s="8" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="M8" s="8" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="N8" s="8" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O8" s="8" t="n">
+        <v>5.33</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="8" t="n">
+        <v>88.56</v>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>50.35</v>
+      </c>
+      <c r="D9" s="8" t="n">
+        <v>64.2</v>
+      </c>
+      <c r="E9" s="8" t="n">
+        <v>85.74</v>
+      </c>
+      <c r="F9" s="8" t="n">
+        <v>43.26</v>
+      </c>
+      <c r="G9" s="8" t="n">
+        <v>57.51</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="8" t="n">
+        <v>30.34</v>
+      </c>
+      <c r="K9" s="8" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>42.95</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="8" t="n">
+        <v>56.42</v>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="D10" s="8" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E10" s="8" t="n">
+        <v>49.37</v>
+      </c>
+      <c r="F10" s="8" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G10" s="8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="8" t="n">
+        <v>65.47</v>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="D11" s="8" t="n">
+        <v>17.12</v>
+      </c>
+      <c r="E11" s="8" t="n">
+        <v>35.77</v>
+      </c>
+      <c r="F11" s="8" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="G11" s="8" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="8" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="K11" s="8" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>56.38</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="8" t="n">
+        <v>92.34</v>
+      </c>
+      <c r="C12" s="8" t="n">
+        <v>42.96</v>
+      </c>
+      <c r="D12" s="8" t="n">
+        <v>58.64</v>
+      </c>
+      <c r="E12" s="8" t="n">
+        <v>92.28</v>
+      </c>
+      <c r="F12" s="8" t="n">
+        <v>31.51</v>
+      </c>
+      <c r="G12" s="8" t="n">
+        <v>46.98</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="8" t="n">
+        <v>20.45</v>
+      </c>
+      <c r="K12" s="8" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="L12" s="8" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="M12" s="8" t="n">
+        <v>27.49</v>
+      </c>
+      <c r="N12" s="8" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O12" s="8" t="n">
+        <v>6.34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.219387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="207.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="12" t="n">
+        <v>84.25</v>
+      </c>
+      <c r="C3" s="12" t="n">
+        <v>69.18</v>
+      </c>
+      <c r="D3" s="12" t="n">
+        <v>75.97</v>
+      </c>
+      <c r="E3" s="12" t="n">
+        <v>74.76</v>
+      </c>
+      <c r="F3" s="12" t="n">
+        <v>59.33</v>
+      </c>
+      <c r="G3" s="12" t="n">
+        <v>66.16</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="204.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="14" t="n">
+        <v>75.06</v>
+      </c>
+      <c r="C4" s="14" t="n">
+        <v>92.52</v>
+      </c>
+      <c r="D4" s="14" t="n">
+        <v>82.88</v>
+      </c>
+      <c r="E4" s="14" t="n">
+        <v>23.96</v>
+      </c>
+      <c r="F4" s="14" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="G4" s="14" t="n">
+        <v>37.82</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/实验结果统计.xlsx
+++ b/实验结果统计.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="代词消解" sheetId="1" state="visible" r:id="rId2"/>
@@ -153,6 +153,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"># # </t>
     </r>
@@ -162,6 +163,7 @@
         <color rgb="FF000000"/>
         <rFont val="AR PL UKai CN"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">按照</t>
     </r>
@@ -171,6 +173,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Precision</t>
     </r>
@@ -180,6 +183,7 @@
         <color rgb="FF000000"/>
         <rFont val="AR PL UKai CN"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">降序
 </t>
@@ -190,6 +194,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">sieve_order = [
         test_sieve,
@@ -215,7 +220,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK SC Regular"/>
@@ -295,14 +300,9 @@
     <font>
       <sz val="11.5"/>
       <color rgb="FF000000"/>
-      <name val="DejaVu Sans Mono"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11.5"/>
-      <color rgb="FF000000"/>
       <name val="AR PL UKai CN"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -368,7 +368,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -419,10 +419,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -509,12 +505,13 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="1" sqref="B4:G4 A9"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="1" sqref="J3:O12 A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.9387755102041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -789,12 +786,12 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B4:G4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="J3:O12 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.31632653061224"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1331,14 +1328,11 @@
   </sheetPr>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="1" sqref="B4:G4 A15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
@@ -1433,24 +1427,12 @@
       <c r="I3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="K3" s="8" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L3" s="8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="M3" s="8" t="n">
-        <v>50</v>
-      </c>
-      <c r="N3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="8" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
@@ -1477,24 +1459,12 @@
       <c r="I4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="8" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="K4" s="8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L4" s="8" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="M4" s="8" t="n">
-        <v>17.26</v>
-      </c>
-      <c r="N4" s="8" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="O4" s="8" t="n">
-        <v>0.29</v>
-      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
@@ -1521,24 +1491,12 @@
       <c r="I5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="8" t="n">
-        <v>31.92</v>
-      </c>
-      <c r="K5" s="8" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="L5" s="8" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="M5" s="8" t="n">
-        <v>45.07</v>
-      </c>
-      <c r="N5" s="8" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="O5" s="8" t="n">
-        <v>1.48</v>
-      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
@@ -1553,24 +1511,12 @@
       <c r="I6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="8" t="n">
-        <v>31.37</v>
-      </c>
-      <c r="K6" s="8" t="n">
-        <v>0.69</v>
-      </c>
-      <c r="L6" s="8" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M6" s="8" t="n">
-        <v>44.46</v>
-      </c>
-      <c r="N6" s="8" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="O6" s="8" t="n">
-        <v>1.71</v>
-      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
@@ -1585,24 +1531,12 @@
       <c r="I7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="8" t="n">
-        <v>31.89</v>
-      </c>
-      <c r="K7" s="8" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="L7" s="8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M7" s="8" t="n">
-        <v>44.24</v>
-      </c>
-      <c r="N7" s="8" t="n">
-        <v>0.81</v>
-      </c>
-      <c r="O7" s="8" t="n">
-        <v>1.6</v>
-      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
@@ -1629,24 +1563,12 @@
       <c r="I8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="8" t="n">
-        <v>15.21</v>
-      </c>
-      <c r="K8" s="8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L8" s="8" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="M8" s="8" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="N8" s="8" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="O8" s="8" t="n">
-        <v>5.33</v>
-      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
@@ -1673,24 +1595,12 @@
       <c r="I9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="8" t="n">
-        <v>30.34</v>
-      </c>
-      <c r="K9" s="8" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="L9" s="8" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M9" s="8" t="n">
-        <v>42.95</v>
-      </c>
-      <c r="N9" s="8" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="O9" s="8" t="n">
-        <v>1.9</v>
-      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
@@ -1717,24 +1627,12 @@
       <c r="I10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
@@ -1761,24 +1659,12 @@
       <c r="I11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="8" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="K11" s="8" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="L11" s="8" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="M11" s="8" t="n">
-        <v>56.38</v>
-      </c>
-      <c r="N11" s="8" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O11" s="8" t="n">
-        <v>0.2</v>
-      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
@@ -1805,24 +1691,12 @@
       <c r="I12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="8" t="n">
-        <v>20.45</v>
-      </c>
-      <c r="K12" s="8" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L12" s="8" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="M12" s="8" t="n">
-        <v>27.49</v>
-      </c>
-      <c r="N12" s="8" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="O12" s="8" t="n">
-        <v>6.34</v>
-      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1850,14 +1724,13 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4:G4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="J3:O12 B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.219387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.6785714285714"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1919,25 +1792,25 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="204.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="14" t="n">
+      <c r="B4" s="13" t="n">
         <v>75.06</v>
       </c>
-      <c r="C4" s="14" t="n">
+      <c r="C4" s="13" t="n">
         <v>92.52</v>
       </c>
-      <c r="D4" s="14" t="n">
+      <c r="D4" s="13" t="n">
         <v>82.88</v>
       </c>
-      <c r="E4" s="14" t="n">
+      <c r="E4" s="13" t="n">
         <v>23.96</v>
       </c>
-      <c r="F4" s="14" t="n">
+      <c r="F4" s="13" t="n">
         <v>89.7</v>
       </c>
-      <c r="G4" s="14" t="n">
+      <c r="G4" s="13" t="n">
         <v>37.82</v>
       </c>
     </row>
